--- a/chp12/multi_plication.xlsx
+++ b/chp12/multi_plication.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -49,16 +49,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -351,7 +351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,33 +375,373 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>18</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>27</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28</v>
+      </c>
+      <c r="I5" t="n">
+        <v>32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>25</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>35</v>
+      </c>
+      <c r="I6" t="n">
+        <v>40</v>
+      </c>
+      <c r="J6" t="n">
+        <v>45</v>
+      </c>
+      <c r="K6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36</v>
+      </c>
+      <c r="H7" t="n">
+        <v>42</v>
+      </c>
+      <c r="I7" t="n">
+        <v>48</v>
+      </c>
+      <c r="J7" t="n">
+        <v>54</v>
+      </c>
+      <c r="K7" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>28</v>
+      </c>
+      <c r="F8" t="n">
+        <v>35</v>
+      </c>
+      <c r="G8" t="n">
+        <v>42</v>
+      </c>
+      <c r="H8" t="n">
+        <v>49</v>
+      </c>
+      <c r="I8" t="n">
+        <v>56</v>
+      </c>
+      <c r="J8" t="n">
+        <v>63</v>
+      </c>
+      <c r="K8" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" t="n">
+        <v>48</v>
+      </c>
+      <c r="H9" t="n">
+        <v>56</v>
+      </c>
+      <c r="I9" t="n">
+        <v>64</v>
+      </c>
+      <c r="J9" t="n">
+        <v>72</v>
+      </c>
+      <c r="K9" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" t="n">
+        <v>27</v>
+      </c>
+      <c r="E10" t="n">
+        <v>36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45</v>
+      </c>
+      <c r="G10" t="n">
+        <v>54</v>
+      </c>
+      <c r="H10" t="n">
+        <v>63</v>
+      </c>
+      <c r="I10" t="n">
+        <v>72</v>
+      </c>
+      <c r="J10" t="n">
+        <v>81</v>
+      </c>
+      <c r="K10" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="n">
+        <v>60</v>
+      </c>
+      <c r="H11" t="n">
+        <v>70</v>
+      </c>
+      <c r="I11" t="n">
+        <v>80</v>
+      </c>
+      <c r="J11" t="n">
+        <v>90</v>
+      </c>
+      <c r="K11" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>